--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_48.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_48.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_48_0</t>
+          <t>model_1_48_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9967317978443174</v>
+        <v>0.9220138760943689</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7188143049378832</v>
+        <v>0.7428292870778391</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7117266589241219</v>
+        <v>0.6994178195724081</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9983405221318988</v>
+        <v>0.5750978872977199</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01371594530531175</v>
+        <v>0.3272910790426576</v>
       </c>
       <c r="G2" t="n">
-        <v>1.880290037621449</v>
+        <v>1.719701741472738</v>
       </c>
       <c r="H2" t="n">
-        <v>1.031137025979714</v>
+        <v>1.075165030633281</v>
       </c>
       <c r="I2" t="n">
-        <v>0.009536052316907632</v>
+        <v>0.4954994258313367</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1570540716928574</v>
+        <v>1.779763171213827</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1171150942676124</v>
+        <v>0.5720935929047428</v>
       </c>
       <c r="L2" t="n">
-        <v>1.00191309394479</v>
+        <v>0.7326190037521221</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1221009262922514</v>
+        <v>0.5964488015516956</v>
       </c>
       <c r="N2" t="n">
-        <v>138.5783924640906</v>
+        <v>36.23381070811175</v>
       </c>
       <c r="O2" t="n">
-        <v>217.8053210805237</v>
+        <v>56.95469973087116</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_48_1</t>
+          <t>model_1_48_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9967449482419276</v>
+        <v>0.9221273071239405</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7186591932722188</v>
+        <v>0.7428224521213369</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7116364970053564</v>
+        <v>0.6999616413780837</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9981841955939016</v>
+        <v>0.5891642491508908</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01366075589970785</v>
+        <v>0.3268150332769988</v>
       </c>
       <c r="G3" t="n">
-        <v>1.88132727004397</v>
+        <v>1.719747446858341</v>
       </c>
       <c r="H3" t="n">
-        <v>1.03145952993525</v>
+        <v>1.07321981156698</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01043436983804964</v>
+        <v>0.4790959436799885</v>
       </c>
       <c r="J3" t="n">
-        <v>0.156520359493921</v>
+        <v>1.756665496255611</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1168792363925597</v>
+        <v>0.5716773856617023</v>
       </c>
       <c r="L3" t="n">
-        <v>1.001905396151067</v>
+        <v>0.7330079101392246</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1218550274591646</v>
+        <v>0.5960148755046512</v>
       </c>
       <c r="N3" t="n">
-        <v>138.5864561792845</v>
+        <v>36.23672183118944</v>
       </c>
       <c r="O3" t="n">
-        <v>217.8133847957176</v>
+        <v>56.95761085394885</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_48_2</t>
+          <t>model_1_48_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.996755273844308</v>
+        <v>0.922221487401403</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7185044820421429</v>
+        <v>0.7428056116982971</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7115422268002047</v>
+        <v>0.7004803878594301</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9980216633029488</v>
+        <v>0.6031037637011343</v>
       </c>
       <c r="F4" t="n">
-        <v>0.013617421555397</v>
+        <v>0.3264197787997724</v>
       </c>
       <c r="G4" t="n">
-        <v>1.882361824751867</v>
+        <v>1.719860058844752</v>
       </c>
       <c r="H4" t="n">
-        <v>1.031796728992976</v>
+        <v>1.071364285481853</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01136834820528506</v>
+        <v>0.4628403844593339</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1559915695746057</v>
+        <v>1.733196762636287</v>
       </c>
       <c r="K4" t="n">
-        <v>0.116693708293965</v>
+        <v>0.5713315839333342</v>
       </c>
       <c r="L4" t="n">
-        <v>1.001899351896015</v>
+        <v>0.7333308139476673</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1216616010453166</v>
+        <v>0.595654352280798</v>
       </c>
       <c r="N4" t="n">
-        <v>138.5928106185921</v>
+        <v>36.23914212183014</v>
       </c>
       <c r="O4" t="n">
-        <v>217.8197392350251</v>
+        <v>56.96003114458955</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_48_3</t>
+          <t>model_1_48_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9967628938797642</v>
+        <v>0.9222957968545171</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7183502848208159</v>
+        <v>0.7427783309976215</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7114441099337999</v>
+        <v>0.7009727896006042</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9978531545643328</v>
+        <v>0.6169048008023673</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01358544189668384</v>
+        <v>0.3261079179215189</v>
       </c>
       <c r="G5" t="n">
-        <v>1.883392942280894</v>
+        <v>1.720042485015785</v>
       </c>
       <c r="H5" t="n">
-        <v>1.032147687334964</v>
+        <v>1.069602993004767</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01233666973471749</v>
+        <v>0.446746310659495</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1554693090193393</v>
+        <v>1.709350463148816</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1165566038312881</v>
+        <v>0.5710585941228088</v>
       </c>
       <c r="L5" t="n">
-        <v>1.001894891387455</v>
+        <v>0.7335855892154872</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1215186597618182</v>
+        <v>0.5953697407288717</v>
       </c>
       <c r="N5" t="n">
-        <v>138.5975130167057</v>
+        <v>36.24105383165374</v>
       </c>
       <c r="O5" t="n">
-        <v>217.8244416331387</v>
+        <v>56.96194285441315</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_48_4</t>
+          <t>model_1_48_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9967678397135826</v>
+        <v>0.9223492199551078</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7181964880511296</v>
+        <v>0.7427399539173754</v>
       </c>
       <c r="D6" t="n">
-        <v>0.711342330748716</v>
+        <v>0.7014376426029869</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9976788732538492</v>
+        <v>0.6305518159405894</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0135646852901738</v>
+        <v>0.3258837125967454</v>
       </c>
       <c r="G6" t="n">
-        <v>1.884421381987956</v>
+        <v>1.720299112728101</v>
       </c>
       <c r="H6" t="n">
-        <v>1.032511745578513</v>
+        <v>1.067940240768969</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01333816287094884</v>
+        <v>0.4308318495091486</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1549550068681594</v>
+        <v>1.68513065220782</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1164675289090217</v>
+        <v>0.5708622536100503</v>
       </c>
       <c r="L6" t="n">
-        <v>1.00189199626522</v>
+        <v>0.7337687541317981</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1214257927357004</v>
+        <v>0.5951650415940043</v>
       </c>
       <c r="N6" t="n">
-        <v>138.60057106655</v>
+        <v>36.24242934215489</v>
       </c>
       <c r="O6" t="n">
-        <v>217.827499682983</v>
+        <v>56.9633183649143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_48_5</t>
+          <t>model_1_48_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9967701932039948</v>
+        <v>0.9223808797539822</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7180432273969919</v>
+        <v>0.7426899735599182</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7112367383004248</v>
+        <v>0.70187311926215</v>
       </c>
       <c r="E7" t="n">
-        <v>0.997498963568588</v>
+        <v>0.6440298785110892</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01355480819437788</v>
+        <v>0.3257508431936134</v>
       </c>
       <c r="G7" t="n">
-        <v>1.885446236687874</v>
+        <v>1.720633331608556</v>
       </c>
       <c r="H7" t="n">
-        <v>1.032889443643449</v>
+        <v>1.06638256600953</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01437199899732763</v>
+        <v>0.415114412326903</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1544499134236032</v>
+        <v>1.660538946287406</v>
       </c>
       <c r="K7" t="n">
-        <v>0.116425118399673</v>
+        <v>0.5707458656824536</v>
       </c>
       <c r="L7" t="n">
-        <v>1.001890618612296</v>
+        <v>0.7338773020136533</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1213815767231669</v>
+        <v>0.5950436987913735</v>
       </c>
       <c r="N7" t="n">
-        <v>138.6020278926133</v>
+        <v>36.24324494902407</v>
       </c>
       <c r="O7" t="n">
-        <v>217.8289565090463</v>
+        <v>56.96413397178348</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_48_6</t>
+          <t>model_1_48_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9967700619174059</v>
+        <v>0.9223900176361637</v>
       </c>
       <c r="C8" t="n">
-        <v>0.717890465619841</v>
+        <v>0.7426277026213326</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7111275728336663</v>
+        <v>0.7022785725134495</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9973135982439849</v>
+        <v>0.6573245998540372</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01355535917610687</v>
+        <v>0.3257124934568968</v>
       </c>
       <c r="G8" t="n">
-        <v>1.886467755395085</v>
+        <v>1.721049737661609</v>
       </c>
       <c r="H8" t="n">
-        <v>1.033279922188266</v>
+        <v>1.064932283239162</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01543718550395948</v>
+        <v>0.3996107784425638</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1539473325630165</v>
+        <v>1.635575642795509</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1164274846250097</v>
+        <v>0.5707122685354651</v>
       </c>
       <c r="L8" t="n">
-        <v>1.001890695462982</v>
+        <v>0.7339086318954184</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1213840436836149</v>
+        <v>0.595008671344282</v>
       </c>
       <c r="N8" t="n">
-        <v>138.6019465973971</v>
+        <v>36.24348041729743</v>
       </c>
       <c r="O8" t="n">
-        <v>217.8288752138301</v>
+        <v>56.96436944005684</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_48_7</t>
+          <t>model_1_48_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9967674485261337</v>
+        <v>0.9223756381085035</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7177382074550647</v>
+        <v>0.7425522909498354</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7110154149851851</v>
+        <v>0.7026521568329328</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9971230118352097</v>
+        <v>0.6704171131075558</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01356632702021257</v>
+        <v>0.3257728412583814</v>
       </c>
       <c r="G9" t="n">
-        <v>1.88748590644403</v>
+        <v>1.721554015856149</v>
       </c>
       <c r="H9" t="n">
-        <v>1.033681104308998</v>
+        <v>1.063595993790034</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01653237453896101</v>
+        <v>0.3843429494394326</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1534541196925047</v>
+        <v>1.611225748942203</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1164745767118841</v>
+        <v>0.5707651366879213</v>
       </c>
       <c r="L9" t="n">
-        <v>1.001892225252995</v>
+        <v>0.7338593306577263</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1214331405781216</v>
+        <v>0.5950637902034405</v>
       </c>
       <c r="N9" t="n">
-        <v>138.6003290217605</v>
+        <v>36.24310989290684</v>
       </c>
       <c r="O9" t="n">
-        <v>217.8272576381935</v>
+        <v>56.96399891566625</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_48_8</t>
+          <t>model_1_48_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9967625055629405</v>
+        <v>0.9223367681980894</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7175864389004281</v>
+        <v>0.7424627927169506</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7108997246474272</v>
+        <v>0.7029934409978185</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9969274109132421</v>
+        <v>0.6832894076748203</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01358707157932343</v>
+        <v>0.3259359699572396</v>
       </c>
       <c r="G10" t="n">
-        <v>1.888500783467715</v>
+        <v>1.722152490951552</v>
       </c>
       <c r="H10" t="n">
-        <v>1.034094921939046</v>
+        <v>1.062375240121031</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01765637905928212</v>
+        <v>0.3693319283676676</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1529650113803044</v>
+        <v>1.586637884237355</v>
       </c>
       <c r="K10" t="n">
-        <v>0.116563594571047</v>
+        <v>0.5709080223269241</v>
       </c>
       <c r="L10" t="n">
-        <v>1.001895118694864</v>
+        <v>0.7337260623934494</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1215259481118415</v>
+        <v>0.5952127587799095</v>
       </c>
       <c r="N10" t="n">
-        <v>138.597273115065</v>
+        <v>36.24210865616148</v>
       </c>
       <c r="O10" t="n">
-        <v>217.824201731498</v>
+        <v>56.96299767892089</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_48_9</t>
+          <t>model_1_48_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9967552627426614</v>
+        <v>0.9222725891743938</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7174351706090334</v>
+        <v>0.7423583046833855</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7107810016381755</v>
+        <v>0.7033012792541584</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9967268966404197</v>
+        <v>0.6959212814121543</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0136174681466325</v>
+        <v>0.3262053155903509</v>
       </c>
       <c r="G11" t="n">
-        <v>1.889512315228797</v>
+        <v>1.722851202913124</v>
       </c>
       <c r="H11" t="n">
-        <v>1.034519587259184</v>
+        <v>1.061274120527591</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01880861774391661</v>
+        <v>0.3546012739488966</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1524806149977399</v>
+        <v>1.561707481529168</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1166939079242464</v>
+        <v>0.5711438659307748</v>
       </c>
       <c r="L11" t="n">
-        <v>1.00189935839454</v>
+        <v>0.7335060200264931</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1216618091742724</v>
+        <v>0.5954586427342399</v>
       </c>
       <c r="N11" t="n">
-        <v>138.5928037757172</v>
+        <v>36.24045658686671</v>
       </c>
       <c r="O11" t="n">
-        <v>217.8197323921503</v>
+        <v>56.96134560962612</v>
       </c>
     </row>
   </sheetData>
